--- a/data/MSME Country Indicators - Oman Summary.xlsx
+++ b/data/MSME Country Indicators - Oman Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Oman</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: SME Associations (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -53,6 +56,18 @@
   </si>
   <si>
     <t>Source: MCI, 2009</t>
+  </si>
+  <si>
+    <t>Value added to the economy (% of total)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>MCI</t>
+  </si>
+  <si>
+    <t>Ministry of Commerce and Industry (MCI), SMEs in Sultanate of Oman : Meeting the development challenges, Dr. Ayoob C. P., Dr. Balabrishnan Somasundaram, Ministry of Higher Education, Sultanate of Oman, NIZWA, p. 27 based on information from the Ministry of Commerce and Industry (MCI).</t>
   </si>
 </sst>
 </file>
@@ -60,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -71,6 +86,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -103,26 +124,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -130,7 +154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -146,52 +170,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="D12" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="0" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="D13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="0" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="D14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="0" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="D15" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Oman Summary.xlsx
+++ b/data/MSME Country Indicators - Oman Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Oman</t>
   </si>
@@ -62,6 +62,51 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>&lt; RO 25,000</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>RO 25,000 &lt; small &lt; RO 250,000</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>10-99</t>
+  </si>
+  <si>
+    <t>RO 250,000 &lt; small &lt; RO 1,500,000</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;99</t>
+  </si>
+  <si>
+    <t>&gt; 1,500,000</t>
   </si>
   <si>
     <t>MCI</t>
@@ -154,7 +199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -247,14 +292,81 @@
         <v>14</v>
       </c>
     </row>
+    <row r="22">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>18</v>
+      <c r="A26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Oman Summary.xlsx
+++ b/data/MSME Country Indicators - Oman Summary.xlsx
@@ -31,16 +31,16 @@
     <t>MSMEs</t>
   </si>
   <si>
+    <t>Enterprises density (per 1000 people)</t>
+  </si>
+  <si>
+    <t>44.5</t>
+  </si>
+  <si>
     <t>Enterprises (absolute #)</t>
   </si>
   <si>
     <t>118386</t>
-  </si>
-  <si>
-    <t>Enterprises density (per 1000 people)</t>
-  </si>
-  <si>
-    <t>44.5</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>

--- a/data/MSME Country Indicators - Oman Summary.xlsx
+++ b/data/MSME Country Indicators - Oman Summary.xlsx
@@ -112,7 +112,7 @@
     <t>MCI</t>
   </si>
   <si>
-    <t>Ministry of Commerce and Industry (MCI), SMEs in Sultanate of Oman : Meeting the development challenges, Dr. Ayoob C. P., Dr. Balabrishnan Somasundaram, Ministry of Higher Education, Sultanate of Oman, NIZWA, p. 27 based on information from the Ministry of Commerce and Industry (MCI).</t>
+    <t>Central Bank of Oman, Circular BM1108, p. 1 provided the instrucctions by Ministry of Commerce and Industry Circular No.1, 2012. Available at http://www.cbo-oman.org/circulars/2013/BM1108SME.pdf</t>
   </si>
 </sst>
 </file>

--- a/data/MSME Country Indicators - Oman Summary.xlsx
+++ b/data/MSME Country Indicators - Oman Summary.xlsx
@@ -34,7 +34,7 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>44.5</t>
+    <t>44.45</t>
   </si>
   <si>
     <t>Enterprises (absolute #)</t>
